--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/AION-TECH SOLUTIONS Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/AION-TECH SOLUTIONS Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -657,13 +657,13 @@
         <v>0.85</v>
       </c>
       <c r="I2">
-        <v>1.107857142857143</v>
+        <v>1.11</v>
       </c>
       <c r="J2">
         <v>6.91</v>
       </c>
       <c r="K2">
-        <v>5.075294117647059</v>
+        <v>5.08</v>
       </c>
       <c r="L2">
         <v>0.82</v>
@@ -684,7 +684,7 @@
         <v>17.9</v>
       </c>
       <c r="R2">
-        <v>13.16090909090909</v>
+        <v>13.16</v>
       </c>
       <c r="S2">
         <v>17.9</v>
@@ -693,7 +693,7 @@
         <v>2.05</v>
       </c>
       <c r="U2">
-        <v>4.474545454545455</v>
+        <v>4.47</v>
       </c>
       <c r="V2">
         <v>21.19</v>
@@ -708,7 +708,7 @@
         <v>1.6</v>
       </c>
       <c r="Z2">
-        <v>6.384999999999999</v>
+        <v>6.38</v>
       </c>
       <c r="AA2">
         <v>15.95</v>
@@ -717,7 +717,7 @@
         <v>37.14</v>
       </c>
       <c r="AC2">
-        <v>41.63368421052631</v>
+        <v>41.63</v>
       </c>
       <c r="AD2">
         <v>0.17</v>
@@ -755,13 +755,13 @@
         <v>0.55</v>
       </c>
       <c r="I3">
-        <v>1.107857142857143</v>
+        <v>1.11</v>
       </c>
       <c r="J3">
         <v>6.88</v>
       </c>
       <c r="K3">
-        <v>5.075294117647059</v>
+        <v>5.08</v>
       </c>
       <c r="L3">
         <v>2.88</v>
@@ -782,7 +782,7 @@
         <v>13.73</v>
       </c>
       <c r="R3">
-        <v>13.16090909090909</v>
+        <v>13.16</v>
       </c>
       <c r="S3">
         <v>13.74</v>
@@ -791,7 +791,7 @@
         <v>5.77</v>
       </c>
       <c r="U3">
-        <v>4.474545454545455</v>
+        <v>4.47</v>
       </c>
       <c r="V3">
         <v>23.78</v>
@@ -806,7 +806,7 @@
         <v>1.29</v>
       </c>
       <c r="Z3">
-        <v>6.384999999999999</v>
+        <v>6.38</v>
       </c>
       <c r="AA3">
         <v>20.23</v>
@@ -853,7 +853,7 @@
         <v>0.16</v>
       </c>
       <c r="I4">
-        <v>1.107857142857143</v>
+        <v>1.11</v>
       </c>
       <c r="J4">
         <v>6.52</v>
@@ -889,7 +889,7 @@
         <v>8.83</v>
       </c>
       <c r="U4">
-        <v>4.474545454545455</v>
+        <v>4.47</v>
       </c>
       <c r="V4">
         <v>33.61</v>
@@ -904,7 +904,7 @@
         <v>2.01</v>
       </c>
       <c r="Z4">
-        <v>6.384999999999999</v>
+        <v>6.38</v>
       </c>
       <c r="AA4">
         <v>26.53</v>
@@ -951,7 +951,7 @@
         <v>0.06</v>
       </c>
       <c r="I5">
-        <v>1.107857142857143</v>
+        <v>1.11</v>
       </c>
       <c r="J5">
         <v>1.78</v>
@@ -987,7 +987,7 @@
         <v>18.79</v>
       </c>
       <c r="U5">
-        <v>4.474545454545455</v>
+        <v>4.47</v>
       </c>
       <c r="V5">
         <v>68</v>
@@ -1002,7 +1002,7 @@
         <v>2.37</v>
       </c>
       <c r="Z5">
-        <v>6.384999999999999</v>
+        <v>6.38</v>
       </c>
       <c r="AA5">
         <v>65.3</v>
@@ -1049,7 +1049,7 @@
         <v>0.27</v>
       </c>
       <c r="I6">
-        <v>1.107857142857143</v>
+        <v>1.11</v>
       </c>
       <c r="J6">
         <v>0.73</v>
@@ -1085,7 +1085,7 @@
         <v>19.48</v>
       </c>
       <c r="U6">
-        <v>4.474545454545455</v>
+        <v>4.47</v>
       </c>
       <c r="V6">
         <v>71.12</v>
@@ -1147,7 +1147,7 @@
         <v>0.32</v>
       </c>
       <c r="I7">
-        <v>1.107857142857143</v>
+        <v>1.11</v>
       </c>
       <c r="J7">
         <v>4.92</v>
@@ -1183,7 +1183,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="U7">
-        <v>4.474545454545455</v>
+        <v>4.47</v>
       </c>
       <c r="V7">
         <v>63.24</v>
@@ -1281,7 +1281,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="U8">
-        <v>4.474545454545455</v>
+        <v>4.47</v>
       </c>
       <c r="V8">
         <v>51.04</v>
@@ -1296,7 +1296,7 @@
         <v>7.73</v>
       </c>
       <c r="Z8">
-        <v>6.384999999999999</v>
+        <v>6.38</v>
       </c>
       <c r="AA8">
         <v>31.41</v>
@@ -1340,7 +1340,7 @@
         <v>4.83</v>
       </c>
       <c r="H9">
-        <v>0.5754545454545454</v>
+        <v>0.58</v>
       </c>
       <c r="I9">
         <v>0.63</v>
@@ -1379,7 +1379,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="U9">
-        <v>4.474545454545455</v>
+        <v>4.47</v>
       </c>
       <c r="V9">
         <v>48.95</v>
@@ -1394,7 +1394,7 @@
         <v>3.88</v>
       </c>
       <c r="Z9">
-        <v>6.384999999999999</v>
+        <v>6.38</v>
       </c>
       <c r="AA9">
         <v>27.31</v>
@@ -1435,7 +1435,7 @@
         <v>59.49</v>
       </c>
       <c r="G10">
-        <v>3.891666666666667</v>
+        <v>3.89</v>
       </c>
       <c r="H10">
         <v>0.29</v>
@@ -1492,7 +1492,7 @@
         <v>2.43</v>
       </c>
       <c r="Z10">
-        <v>6.384999999999999</v>
+        <v>6.38</v>
       </c>
       <c r="AA10">
         <v>26.45</v>
@@ -1533,7 +1533,7 @@
         <v>60.57</v>
       </c>
       <c r="G11">
-        <v>3.891666666666667</v>
+        <v>3.89</v>
       </c>
       <c r="H11">
         <v>0.18</v>
@@ -1590,7 +1590,7 @@
         <v>0.74</v>
       </c>
       <c r="Z11">
-        <v>6.384999999999999</v>
+        <v>6.38</v>
       </c>
       <c r="AA11">
         <v>9.01</v>
@@ -1631,7 +1631,7 @@
         <v>54.44</v>
       </c>
       <c r="G12">
-        <v>3.891666666666667</v>
+        <v>3.89</v>
       </c>
       <c r="H12">
         <v>3.47</v>
@@ -1649,7 +1649,7 @@
         <v>2.47</v>
       </c>
       <c r="M12">
-        <v>8.122105263157897</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="N12">
         <v>1.09</v>
@@ -1688,7 +1688,7 @@
         <v>0.8</v>
       </c>
       <c r="Z12">
-        <v>6.384999999999999</v>
+        <v>6.38</v>
       </c>
       <c r="AA12">
         <v>11.19</v>
@@ -1729,7 +1729,7 @@
         <v>53.57</v>
       </c>
       <c r="G13">
-        <v>3.891666666666667</v>
+        <v>3.89</v>
       </c>
       <c r="H13">
         <v>-0.25</v>
@@ -1786,7 +1786,7 @@
         <v>0.18</v>
       </c>
       <c r="Z13">
-        <v>6.384999999999999</v>
+        <v>6.38</v>
       </c>
       <c r="AA13">
         <v>6.25</v>
@@ -1830,7 +1830,7 @@
         <v>0.16</v>
       </c>
       <c r="H14">
-        <v>0.5754545454545454</v>
+        <v>0.58</v>
       </c>
       <c r="I14">
         <v>1.39</v>
@@ -1860,7 +1860,7 @@
         <v>10.34</v>
       </c>
       <c r="R14">
-        <v>13.16090909090909</v>
+        <v>13.16</v>
       </c>
       <c r="S14">
         <v>10.34</v>
@@ -1928,7 +1928,7 @@
         <v>0.08</v>
       </c>
       <c r="H15">
-        <v>0.5754545454545454</v>
+        <v>0.58</v>
       </c>
       <c r="I15">
         <v>1.5</v>
@@ -1958,7 +1958,7 @@
         <v>10.03</v>
       </c>
       <c r="R15">
-        <v>13.16090909090909</v>
+        <v>13.16</v>
       </c>
       <c r="S15">
         <v>10.03</v>
@@ -2026,7 +2026,7 @@
         <v>0.28</v>
       </c>
       <c r="H16">
-        <v>0.5754545454545454</v>
+        <v>0.58</v>
       </c>
       <c r="I16">
         <v>1.38</v>
@@ -2056,7 +2056,7 @@
         <v>10.33</v>
       </c>
       <c r="R16">
-        <v>13.16090909090909</v>
+        <v>13.16</v>
       </c>
       <c r="S16">
         <v>10.33</v>
@@ -2124,7 +2124,7 @@
         <v>0.13</v>
       </c>
       <c r="H17">
-        <v>0.5754545454545454</v>
+        <v>0.58</v>
       </c>
       <c r="I17">
         <v>1.42</v>
@@ -2154,7 +2154,7 @@
         <v>10.07</v>
       </c>
       <c r="R17">
-        <v>13.16090909090909</v>
+        <v>13.16</v>
       </c>
       <c r="S17">
         <v>10.07</v>
@@ -2219,10 +2219,10 @@
         <v>31.17</v>
       </c>
       <c r="G18">
-        <v>3.891666666666667</v>
+        <v>3.89</v>
       </c>
       <c r="H18">
-        <v>0.5754545454545454</v>
+        <v>0.58</v>
       </c>
       <c r="I18">
         <v>1.42</v>
@@ -2231,7 +2231,7 @@
         <v>5.12</v>
       </c>
       <c r="K18">
-        <v>5.075294117647059</v>
+        <v>5.08</v>
       </c>
       <c r="L18">
         <v>4.91</v>
@@ -2252,7 +2252,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="R18">
-        <v>13.16090909090909</v>
+        <v>13.16</v>
       </c>
       <c r="S18">
         <v>9.960000000000001</v>
@@ -2317,10 +2317,10 @@
         <v>54.86</v>
       </c>
       <c r="G19">
-        <v>3.891666666666667</v>
+        <v>3.89</v>
       </c>
       <c r="H19">
-        <v>0.5754545454545454</v>
+        <v>0.58</v>
       </c>
       <c r="I19">
         <v>1.26</v>
@@ -2350,7 +2350,7 @@
         <v>10</v>
       </c>
       <c r="R19">
-        <v>13.16090909090909</v>
+        <v>13.16</v>
       </c>
       <c r="S19">
         <v>10</v>
@@ -2415,10 +2415,10 @@
         <v>57.62</v>
       </c>
       <c r="G20">
-        <v>3.891666666666667</v>
+        <v>3.89</v>
       </c>
       <c r="H20">
-        <v>0.5754545454545454</v>
+        <v>0.58</v>
       </c>
       <c r="I20">
         <v>1.38</v>
@@ -2448,7 +2448,7 @@
         <v>14.41</v>
       </c>
       <c r="R20">
-        <v>13.16090909090909</v>
+        <v>13.16</v>
       </c>
       <c r="S20">
         <v>14.41</v>
@@ -2513,10 +2513,10 @@
         <v>59.98</v>
       </c>
       <c r="G21">
-        <v>3.891666666666667</v>
+        <v>3.89</v>
       </c>
       <c r="H21">
-        <v>0.5754545454545454</v>
+        <v>0.58</v>
       </c>
       <c r="I21">
         <v>1.2</v>
@@ -2555,7 +2555,7 @@
         <v>24.05</v>
       </c>
       <c r="U21">
-        <v>4.474545454545455</v>
+        <v>4.47</v>
       </c>
       <c r="V21">
         <v>44.86</v>
